--- a/src/main/java/com/msrtc/ExamBench/Data/EB_Data.xlsx
+++ b/src/main/java/com/msrtc/ExamBench/Data/EB_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>SrNo</t>
   </si>
@@ -36,9 +36,48 @@
     <t>2</t>
   </si>
   <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Debate</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>World News</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Gadgets</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
     <t>Question_Text</t>
   </si>
   <si>
@@ -88,9 +127,6 @@
   </si>
   <si>
     <t>What is 2+2 ?</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Who is Prime Minister of India ?</t>
@@ -127,22 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +194,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,7 +225,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -196,6 +240,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -205,7 +263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,14 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,22 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,25 +322,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,157 +484,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +566,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -544,21 +595,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,7 +616,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,130 +634,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,18 +1123,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="5.85714285714286" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.42857142857143" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="16377" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
@@ -1127,12 +1162,55 @@
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:1">
+    <row r="4" s="3" customFormat="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1224,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1170,31 +1248,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1202,31 +1280,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1234,63 +1312,63 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1319,31 +1397,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1351,63 +1429,63 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
